--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/2020-02-24 Validatie-en-Conformiteitsregels Totaal v0.9 - excl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/2020-02-24 Validatie-en-Conformiteitsregels Totaal v0.9 - excl onderscheidOntwerpDefinitief.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58DC0E7E-1BCD-4118-AB71-33A3AF146298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960A5326-6044-4A7C-AFBE-AB8892A51007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13742" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13874" uniqueCount="672">
   <si>
     <t>ID</t>
   </si>
@@ -2057,12 +2057,59 @@
   <si>
     <t>Definitief MR</t>
   </si>
+  <si>
+    <t>TPOD2010</t>
+  </si>
+  <si>
+    <t>Kijken of alle benodigde bestanden (vooral manifest en manifest-ow) aanwezig zijn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TPOD2000</t>
+    </r>
+  </si>
+  <si>
+    <t>het wId van de Regeltekst in OW moet verwijzen naar een bestaande wId van een Artikel of Lid in OP</t>
+  </si>
+  <si>
+    <t>het wId van de Regeling  in OW moet verwijzen naar een bestaande work van een regeling in OP</t>
+  </si>
+  <si>
+    <t>TPOD2020</t>
+  </si>
+  <si>
+    <t>het FRBRWork van het manifest in OW moet verwijzen naar een bestaand FRBRWork van een Regelingversie in OP</t>
+  </si>
+  <si>
+    <t>TPOD2030</t>
+  </si>
+  <si>
+    <t>het FRBRExpression van het manifest in OW moet verwijzen naar een bestaand FRBRWork van een Regelingversie in OP</t>
+  </si>
+  <si>
+    <t>TPOD2040</t>
+  </si>
+  <si>
+    <t>het id van FormeleDivisie in OW moet verwijzen naar een bestaande id van een FormeleDivisie in OP</t>
+  </si>
+  <si>
+    <t>TPOD2050</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2122,6 +2169,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2197,7 +2251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2323,6 +2377,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -29456,8 +29519,8 @@
   <dimension ref="A1:V219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -36809,69 +36872,451 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
-      <c r="Q110" s="43"/>
-      <c r="R110" s="43"/>
-    </row>
-    <row r="111" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A111" s="45"/>
-      <c r="Q111" s="43"/>
-      <c r="R111" s="43"/>
-    </row>
-    <row r="112" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A112" s="45"/>
-      <c r="Q112" s="43"/>
-      <c r="R112" s="43"/>
-    </row>
-    <row r="113" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A113" s="45"/>
-      <c r="Q113" s="43"/>
-      <c r="R113" s="43"/>
-    </row>
-    <row r="114" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A114" s="45"/>
-    </row>
-    <row r="115" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A115" s="45"/>
-    </row>
-    <row r="116" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="B110" s="53" t="s">
+        <v>663</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J110" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L110" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N110" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P110" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R110" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T110" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V110" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="36" t="s">
+        <v>660</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>664</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J111" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L111" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N111" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P111" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R111" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T111" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V111" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>666</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J112" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L112" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N112" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P112" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R112" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T112" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V112" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="36" t="s">
+        <v>667</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>668</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J113" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L113" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N113" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P113" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R113" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T113" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V113" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="36" t="s">
+        <v>669</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>670</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J114" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L114" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N114" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P114" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R114" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T114" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V114" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B115" s="54" t="s">
+        <v>661</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J115" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L115" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N115" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P115" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R115" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T115" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V115" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A116" s="45"/>
     </row>
-    <row r="117" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A117" s="45"/>
     </row>
-    <row r="118" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A118" s="45"/>
     </row>
-    <row r="119" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="45"/>
     </row>
-    <row r="120" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A120" s="45"/>
     </row>
-    <row r="121" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A121" s="45"/>
     </row>
-    <row r="122" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A122" s="45"/>
     </row>
-    <row r="123" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A123" s="45"/>
     </row>
-    <row r="124" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A124" s="45"/>
     </row>
-    <row r="125" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A125" s="45"/>
     </row>
-    <row r="126" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A126" s="45"/>
     </row>
-    <row r="127" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A127" s="45"/>
     </row>
-    <row r="128" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A128" s="45"/>
     </row>
     <row r="129" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
@@ -37173,9 +37618,9 @@
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A204 A111:A178">
+  <conditionalFormatting sqref="A204 A116:A178">
     <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J69 L2:L69 N2:N69 J95 L95 N95 P95 P2:P69 R2:R69 R95 T95 T2:T69 V2:V69 V95">
